--- a/Model2/excel/DemR/results/Overview_fullweek_DRres.xlsx
+++ b/Model2/excel/DemR/results/Overview_fullweek_DRres.xlsx
@@ -9,15 +9,20 @@
   <sheets>
     <sheet name="reserves" sheetId="1" r:id="rId1"/>
     <sheet name="capacities" sheetId="2" r:id="rId2"/>
-    <sheet name="curtailment" sheetId="3" r:id="rId3"/>
-    <sheet name="storage" sheetId="4" r:id="rId4"/>
+    <sheet name="storage" sheetId="3" r:id="rId3"/>
+    <sheet name="generation" sheetId="4" r:id="rId4"/>
+    <sheet name="demandshift" sheetId="5" r:id="rId5"/>
+    <sheet name="curtailment" sheetId="6" r:id="rId6"/>
+    <sheet name="storc" sheetId="7" r:id="rId7"/>
+    <sheet name="stordisc" sheetId="8" r:id="rId8"/>
+    <sheet name="maxshift" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>generation</t>
   </si>
@@ -118,6 +123,21 @@
     <t>WIND_ON</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>STOR_L</t>
+  </si>
+  <si>
+    <t>STOR_M_C</t>
+  </si>
+  <si>
+    <t>STOR_M_E</t>
+  </si>
+  <si>
+    <t>STOR_S</t>
+  </si>
+  <si>
     <t>curt</t>
   </si>
   <si>
@@ -130,22 +150,7 @@
     <t>curt70</t>
   </si>
   <si>
-    <t>GRI</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>STOR_L</t>
-  </si>
-  <si>
-    <t>STOR_M_C</t>
-  </si>
-  <si>
-    <t>STOR_M_E</t>
-  </si>
-  <si>
-    <t>STOR_S</t>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -561,40 +566,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.000186506029035</v>
+        <v>0.0013018120826643</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>246512.160460463</v>
+        <v>1552040.93371274</v>
       </c>
       <c r="F2">
-        <v>132.05138906974</v>
+        <v>696.835331348669</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>431413.644425261</v>
+        <v>2638748.0651016</v>
       </c>
       <c r="I2">
-        <v>46903.9053188606</v>
+        <v>337046.459562756</v>
       </c>
       <c r="J2">
-        <v>367315.865896514</v>
+        <v>2273917.40538827</v>
       </c>
       <c r="K2">
-        <v>211261.260956366</v>
+        <v>1220670.65150236</v>
       </c>
       <c r="L2">
-        <v>11774.169051938</v>
+        <v>68515.4357844881</v>
       </c>
       <c r="M2">
-        <v>11959.3505565185</v>
+        <v>50759.7164501673</v>
       </c>
       <c r="N2">
-        <v>666469.954222467</v>
+        <v>4117407.65415917</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -605,40 +610,40 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>3395.13703271401</v>
+        <v>19926.8648783436</v>
       </c>
       <c r="D3">
-        <v>6607.68532827524</v>
+        <v>41517.7031028084</v>
       </c>
       <c r="E3">
-        <v>240479.952350878</v>
+        <v>1516304.836956</v>
       </c>
       <c r="F3">
-        <v>23220.8657897333</v>
+        <v>149867.513627566</v>
       </c>
       <c r="G3">
-        <v>15530.2778552395</v>
+        <v>88018.2314367009</v>
       </c>
       <c r="H3">
-        <v>396758.490747029</v>
+        <v>2427228.39482808</v>
       </c>
       <c r="I3">
-        <v>33314.1514434045</v>
+        <v>217443.35960642</v>
       </c>
       <c r="J3">
-        <v>366977.857297636</v>
+        <v>2251050.94326732</v>
       </c>
       <c r="K3">
-        <v>229256.834151146</v>
+        <v>1391082.82475575</v>
       </c>
       <c r="L3">
-        <v>2442.24690562317</v>
+        <v>16693.596305258</v>
       </c>
       <c r="M3">
-        <v>162576.127087053</v>
+        <v>919152.888146678</v>
       </c>
       <c r="N3">
-        <v>545890.934384855</v>
+        <v>3434260.45613125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -649,40 +654,40 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>606.141361229403</v>
+        <v>3860.80401347566</v>
       </c>
       <c r="D4">
-        <v>321.904433873898</v>
+        <v>2221.93922025343</v>
       </c>
       <c r="E4">
-        <v>133471.954204897</v>
+        <v>869919.656766282</v>
       </c>
       <c r="F4">
-        <v>7589.94518483335</v>
+        <v>48434.7047055267</v>
       </c>
       <c r="G4">
-        <v>623.607058127263</v>
+        <v>3288.96132494043</v>
       </c>
       <c r="H4">
-        <v>126186.44775704</v>
+        <v>824278.733969547</v>
       </c>
       <c r="I4">
-        <v>19196.6689805883</v>
+        <v>123233.591980567</v>
       </c>
       <c r="J4">
-        <v>5548.60111814023</v>
+        <v>32420.9857077419</v>
       </c>
       <c r="K4">
-        <v>109654.729901271</v>
+        <v>720347.822311693</v>
       </c>
       <c r="L4">
-        <v>7043.81410711987</v>
+        <v>44936.515822082</v>
       </c>
       <c r="M4">
-        <v>16632.3769794817</v>
+        <v>101998.685544654</v>
       </c>
       <c r="N4">
-        <v>110723.808913393</v>
+        <v>729067.19863322</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -693,40 +698,40 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>4.099114401728</v>
+        <v>34.330083114472</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1464865.46871891</v>
+        <v>9366743.59523794</v>
       </c>
       <c r="F5">
-        <v>2368.65160503522</v>
+        <v>13222.9232904404</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2075029.46866494</v>
+        <v>12953259.1110675</v>
       </c>
       <c r="I5">
-        <v>1128235.10621148</v>
+        <v>7894874.10317724</v>
       </c>
       <c r="J5">
-        <v>200400.495295141</v>
+        <v>1309734.19496392</v>
       </c>
       <c r="K5">
-        <v>1388147.59180581</v>
+        <v>7693855.07612112</v>
       </c>
       <c r="L5">
-        <v>2976.97473398115</v>
+        <v>19533.1781327815</v>
       </c>
       <c r="M5">
-        <v>1791884.33728325</v>
+        <v>12110226.6059994</v>
       </c>
       <c r="N5">
-        <v>1138788.48285657</v>
+        <v>6124162.82984752</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -737,40 +742,40 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>92893.4281563953</v>
+        <v>574472.740094029</v>
       </c>
       <c r="D6">
-        <v>43421.952335458</v>
+        <v>274362.802142533</v>
       </c>
       <c r="E6">
-        <v>1366500.34810076</v>
+        <v>8761177.98945451</v>
       </c>
       <c r="F6">
-        <v>308935.391883082</v>
+        <v>1931604.65251127</v>
       </c>
       <c r="G6">
-        <v>66264.2396450351</v>
+        <v>419372.917992239</v>
       </c>
       <c r="H6">
-        <v>1748988.01849621</v>
+        <v>10910710.7278905</v>
       </c>
       <c r="I6">
-        <v>1437518.92896859</v>
+        <v>8407972.81066769</v>
       </c>
       <c r="J6">
-        <v>767811.155204227</v>
+        <v>5164480.15955406</v>
       </c>
       <c r="K6">
-        <v>565099.945346136</v>
+        <v>3673238.89879365</v>
       </c>
       <c r="L6">
-        <v>697217.232804555</v>
+        <v>3642350.09775439</v>
       </c>
       <c r="M6">
-        <v>2309112.20697301</v>
+        <v>15197443.0106239</v>
       </c>
       <c r="N6">
-        <v>123699.085141403</v>
+        <v>688026.467582071</v>
       </c>
     </row>
   </sheetData>
@@ -977,99 +982,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>18837.3153690205</v>
-      </c>
-      <c r="F2">
-        <v>139060.40394174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1994.5930737388</v>
-      </c>
-      <c r="E4">
-        <v>477635.109068638</v>
-      </c>
-      <c r="F4">
-        <v>904700.104976417</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1084,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1107,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1130,7 +1042,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1153,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1176,19 +1088,546 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>12877247.3642119</v>
+      </c>
+      <c r="D2">
+        <v>21048421.5158628</v>
+      </c>
+      <c r="E2">
+        <v>46483160.7369532</v>
+      </c>
+      <c r="F2">
+        <v>20133782.3863803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>15798960.7915502</v>
+      </c>
+      <c r="D3">
+        <v>11844795.1291264</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>11715276.1679977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>61140089.7944411</v>
+      </c>
+      <c r="D4">
+        <v>37789164.9285595</v>
+      </c>
+      <c r="E4">
+        <v>3610195.26153611</v>
+      </c>
+      <c r="F4">
+        <v>-8.21271789049658e-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>642645.984971586</v>
+      </c>
+      <c r="D5">
+        <v>910040.464481819</v>
+      </c>
+      <c r="E5">
+        <v>1207569.35621275</v>
+      </c>
+      <c r="F5">
+        <v>1540257.26972145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>3064318.49854914</v>
+      </c>
+      <c r="D6">
+        <v>3064318.49854947</v>
+      </c>
+      <c r="E6">
+        <v>2950000.35680466</v>
+      </c>
+      <c r="F6">
+        <v>16188373.7107437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>8696745.01860184</v>
+      </c>
+      <c r="D8">
+        <v>27578846.5777327</v>
+      </c>
+      <c r="E8">
+        <v>48122010.0627186</v>
+      </c>
+      <c r="F8">
+        <v>55313901.1789302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>4107481.76863323</v>
+      </c>
+      <c r="C2">
+        <v>5737230.1220309</v>
+      </c>
+      <c r="D2">
+        <v>8048022.56185818</v>
+      </c>
+      <c r="E2">
+        <v>8747620.05150791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>9692.70179831109</v>
+      </c>
+      <c r="D2">
+        <v>1928414.36552252</v>
+      </c>
+      <c r="E2">
+        <v>4751047.75847795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>300906.110457436</v>
+      </c>
+      <c r="C2">
+        <v>366814.106616291</v>
+      </c>
+      <c r="D2">
+        <v>915659.740745972</v>
+      </c>
+      <c r="E2">
+        <v>10981934.914065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>225679.582843074</v>
+      </c>
+      <c r="C2">
+        <v>275110.579962224</v>
+      </c>
+      <c r="D2">
+        <v>686744.805559474</v>
+      </c>
+      <c r="E2">
+        <v>8236451.18555302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2129.87465686798</v>
+      </c>
+      <c r="C2">
+        <v>3998.4748798743</v>
+      </c>
+      <c r="D2">
+        <v>4889.57276278364</v>
+      </c>
+      <c r="E2">
+        <v>4889.57276278365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2265.99565424034</v>
+      </c>
+      <c r="C3">
+        <v>2312.8959089581</v>
+      </c>
+      <c r="D3">
+        <v>2321.30935452233</v>
+      </c>
+      <c r="E3">
+        <v>2321.30935452233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2247.36667348608</v>
+      </c>
+      <c r="C4">
+        <v>2312.8959089581</v>
+      </c>
+      <c r="D4">
+        <v>2321.30935452233</v>
+      </c>
+      <c r="E4">
+        <v>2321.30935452233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1373.524963539</v>
+      </c>
+      <c r="C5">
+        <v>1454.59514560029</v>
+      </c>
       <c r="D5">
-        <v>0</v>
+        <v>1454.5951456003</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>1454.5951456003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1382.56860452993</v>
+      </c>
+      <c r="C6">
+        <v>1454.5951456003</v>
+      </c>
+      <c r="D6">
+        <v>1454.5951456003</v>
+      </c>
+      <c r="E6">
+        <v>1454.5951456003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3521.80391950026</v>
+      </c>
+      <c r="C7">
+        <v>3549.49166202945</v>
+      </c>
+      <c r="D7">
+        <v>3596.11976307164</v>
+      </c>
+      <c r="E7">
+        <v>3596.11976307164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3335.69743176395</v>
+      </c>
+      <c r="C8">
+        <v>3510.51917214959</v>
+      </c>
+      <c r="D8">
+        <v>3610.51917214959</v>
+      </c>
+      <c r="E8">
+        <v>3610.51917214959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2903.22867105034</v>
+      </c>
+      <c r="C9">
+        <v>4857.62891670642</v>
+      </c>
+      <c r="D9">
+        <v>4857.62891670642</v>
+      </c>
+      <c r="E9">
+        <v>4857.62891670642</v>
       </c>
     </row>
   </sheetData>
